--- a/vectorNorms.xlsx
+++ b/vectorNorms.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>v_norms1</t>
   </si>
@@ -22,6 +22,33 @@
   </si>
   <si>
     <t>v_norms3</t>
+  </si>
+  <si>
+    <t>Time Step (s)</t>
+  </si>
+  <si>
+    <t>Euler Method (deg)</t>
+  </si>
+  <si>
+    <t>RK4 Method (deg)</t>
+  </si>
+  <si>
+    <t>Time Step (s)</t>
+  </si>
+  <si>
+    <t>Euler Method (deg)</t>
+  </si>
+  <si>
+    <t>RK4 Method (deg)</t>
+  </si>
+  <si>
+    <t>Time Step (s)</t>
+  </si>
+  <si>
+    <t>Euler Method (deg)</t>
+  </si>
+  <si>
+    <t>RK4 Method (deg)</t>
   </si>
   <si>
     <t>Time Step (s)</t>
@@ -186,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -211,11 +238,14 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -234,6 +264,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -253,13 +286,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
